--- a/DOC/結合テスト/契約情報リスト結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報リスト結合テスト_項目仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBA7F8-259E-40BA-B3AB-7084D03AEA81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2006EA-F38F-4C74-8D93-CBFDF050FFA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -1118,11 +1118,6 @@
 	②契約リスト更新画面の左側にある新規ボタンクリック。</t>
   </si>
   <si>
-    <t xml:space="preserve">
-①更新画面の右側にある登録ボタンクリック。
-②新規画面の右側にある登録ボタンクリック。</t>
-  </si>
-  <si>
     <t>新規作成したデータが画面上にもデータベースにも保存できる。</t>
   </si>
   <si>
@@ -1170,13 +1165,18 @@
   <si>
     <t>③更新ボタン押したときの画面表示</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+①更新画面の左側にある登録ボタンクリック。
+②新規画面の左側にある登録ボタンクリック。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1675,7 +1675,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1921,6 +1921,75 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1936,6 +2005,9 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1951,6 +2023,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1966,6 +2041,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1998,84 +2076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2841,16 +2841,16 @@
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
       <c r="U15" s="70"/>
@@ -2866,10 +2866,10 @@
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="109"/>
+      <c r="L16" s="81"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70"/>
       <c r="O16" s="70"/>
@@ -2903,20 +2903,20 @@
     <row r="18" spans="1:24" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="F18" s="70"/>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="83"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="70"/>
       <c r="T18" s="70"/>
       <c r="U18" s="70"/>
@@ -2927,20 +2927,20 @@
     <row r="19" spans="1:24" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="F19" s="70"/>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
       <c r="S19" s="70"/>
       <c r="T19" s="70"/>
       <c r="U19" s="70"/>
@@ -2950,18 +2950,18 @@
     </row>
     <row r="20" spans="1:24" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="114"/>
       <c r="S20" s="70"/>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
@@ -2988,20 +2988,20 @@
       <c r="A22" s="71"/>
       <c r="B22" s="70"/>
       <c r="F22" s="70"/>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="108"/>
       <c r="S22" s="70"/>
       <c r="T22" s="70"/>
       <c r="U22" s="70"/>
@@ -3012,20 +3012,20 @@
     <row r="23" spans="1:24" s="63" customFormat="1">
       <c r="A23" s="71"/>
       <c r="F23" s="70"/>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="117"/>
       <c r="S23" s="70"/>
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
@@ -3036,18 +3036,18 @@
     <row r="24" spans="1:24" s="63" customFormat="1">
       <c r="A24" s="71"/>
       <c r="F24" s="70"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="120"/>
       <c r="S24" s="70"/>
       <c r="T24" s="70"/>
       <c r="U24" s="70"/>
@@ -3511,7 +3511,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="84" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3533,10 +3533,10 @@
       <c r="B4" s="59">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="85">
         <v>44699</v>
       </c>
       <c r="E4" s="59" t="s">
@@ -3634,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3670,7 +3670,7 @@
       <c r="G2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="92" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="50" t="s">
@@ -3684,13 +3684,13 @@
       <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="90" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="54"/>
@@ -3701,16 +3701,16 @@
       <c r="B4" s="51">
         <v>2</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="88" t="s">
         <v>78</v>
       </c>
       <c r="G4" s="52" t="s">
@@ -3723,77 +3723,77 @@
       <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="86.1" customHeight="1">
       <c r="B6" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" ht="86.1" customHeight="1">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="54"/>
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="409.2" customHeight="1">
-      <c r="B8" s="117">
+      <c r="B8" s="87">
         <v>6</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="86" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>87</v>
       </c>
       <c r="G8" s="52"/>
       <c r="H8" s="54"/>
@@ -3808,7 +3808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -3823,7 +3823,7 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3837,8 +3837,8 @@
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -3905,22 +3905,22 @@
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="38"/>
@@ -3951,22 +3951,22 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="124"/>
+      <c r="A19" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="94"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="38"/>
@@ -3977,15 +3977,15 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="28.8">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="39"/>
@@ -4000,163 +4000,163 @@
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="125"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="43"/>
-      <c r="D25" s="126"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:10" ht="13.05" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="129"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
       <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="125"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="127"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="126"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="125"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="128"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="44"/>
       <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="129"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
       <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="125"/>
-      <c r="B31" s="129"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="126"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="125"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="125"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="125"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" ht="16.05" customHeight="1">
-      <c r="A35" s="125"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A37" s="125"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A40" s="125"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A42" s="125"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A43" s="125"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="125"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="125"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="125"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
+      <c r="A49" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4581,23 +4581,23 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="121" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="97"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="107"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="121"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="124" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -4606,7 +4606,7 @@
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="99"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="24" t="s">
         <v>16</v>
       </c>
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="99"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="24" t="s">
         <v>28</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="99"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="24" t="s">
         <v>29</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="17.399999999999999">
-      <c r="B38" s="99"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="28" t="s">
         <v>30</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="99"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="24" t="s">
         <v>31</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="99"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="24" t="s">
         <v>18</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="99"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="29" t="s">
         <v>32</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="99"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="29" t="s">
         <v>33</v>
       </c>
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="99"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="29" t="s">
         <v>34</v>
       </c>
@@ -4687,7 +4687,7 @@
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="100"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="30" t="s">
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="30" t="s">
         <v>38</v>
       </c>
@@ -4716,7 +4716,7 @@
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="128"/>
       <c r="C47" s="30" t="s">
         <v>39</v>
       </c>
@@ -4725,7 +4725,7 @@
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="30" t="s">
         <v>40</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="128"/>
       <c r="C49" s="30" t="s">
         <v>41</v>
       </c>
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="30" t="s">
         <v>42</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="30" t="s">
         <v>43</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="103"/>
+      <c r="B52" s="129"/>
       <c r="C52" s="30" t="s">
         <v>44</v>
       </c>
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="130" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="29" t="s">
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="105"/>
+      <c r="B54" s="131"/>
       <c r="C54" s="29" t="s">
         <v>47</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="106"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="29" t="s">
         <v>48</v>
       </c>

--- a/DOC/結合テスト/契約情報リスト結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報リスト結合テスト_項目仕様書.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096626F-1B4F-4BFA-A28B-2F62EF71F505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA78791-C142-4ACC-B173-37E168579A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1215" windowWidth="28050" windowHeight="13530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="10" r:id="rId2"/>
     <sheet name="結合テスト" sheetId="2" r:id="rId3"/>
     <sheet name="期待結果" sheetId="12" r:id="rId4"/>
+    <sheet name="テストデータ_社員リスト" sheetId="13" r:id="rId5"/>
+    <sheet name="テストデータ_契約情報リスト" sheetId="14" r:id="rId6"/>
+    <sheet name="テストデータ_更新" sheetId="15" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__a1">#REF!</definedName>
@@ -846,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="176">
   <si>
     <t>システム名</t>
   </si>
@@ -908,9 +911,6 @@
     <t>　　社内管理システム_契約情報リスト作成結合テスト</t>
   </si>
   <si>
-    <t>検索ボタンチェック</t>
-  </si>
-  <si>
     <t>更新ボタンチェック</t>
   </si>
   <si>
@@ -918,47 +918,14 @@
   </si>
   <si>
     <t>登録ボタンチェック</t>
-  </si>
-  <si>
-    <t>エラーメッセージチェック</t>
-  </si>
-  <si>
-    <t>①プルーダウンに社員リストが表示。
-②空の契約情報リスト表示。
-③新規ボタン表示。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">契約情報管理をクリックする
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	①プルーダウンにデータベース
-	 	の社員リストが表示される。
-	②空の社員リストが表示。
-	③新規ボタン押したら
-	 	新規登録可能。</t>
   </si>
   <si>
     <t xml:space="preserve">リストテーブルの中に行ごとの更新ボタンをクリック。
 </t>
   </si>
   <si>
-    <t>プルーダウンに社員を選択して検索ボタンをクリック。</t>
-  </si>
-  <si>
     <t xml:space="preserve">リスト行ごとに更新ボタンを押したらリスト情報を更新可能。
 </t>
-  </si>
-  <si>
-    <t>チェック結果が画面に表示される。リストのデータが更新可能。
-参照：リスト行ごと更新画面のデータはデータベースの社員のデータ</t>
-  </si>
-  <si>
-    <t>選択された社員の契約情報リストが画面に表示。</t>
-  </si>
-  <si>
-    <t>チェック結果が画面に表示される。選択された社員の契約情報リストが画面に表示。
-参照：データベースに入力した社員の契約リストデータ</t>
   </si>
   <si>
     <t>①社員の契約情報が新規可能。
@@ -999,6 +966,710 @@
 ⑭タイムレポートパスが空のときメッセージが表示。</t>
   </si>
   <si>
+    <t>操作によってそれぞれのエラーメッセージが表示される。</t>
+  </si>
+  <si>
+    <t>①初期表示（契約リスト情報画面）</t>
+  </si>
+  <si>
+    <t>②検索ボタンを押したときの契約情報リスト画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①更新画面の左側にある登録ボタンクリック。
+②新規画面の左側にある登録ボタンクリック。</t>
+  </si>
+  <si>
+    <t>③更新画面表示</t>
+  </si>
+  <si>
+    <t>④新規画面表示</t>
+  </si>
+  <si>
+    <t>契約情報更新画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>契約情報リスト結果の「更新」ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>リスト結果行のデータが表示される</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>契約情報リストの「新規」ボタンをクリック</t>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>契約情報IDは採番され、画面に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">①プルーダウンに社員リストが表示。
+②空の契約情報リスト表示。
+③新規ボタン表示。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　契約情報リスト画面</t>
+    </r>
+    <rPh sb="43" eb="45">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機能欄の「契約情報管理」ボタンをクリックする
+</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>対象テーブル：employee</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>insertDate</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>郭  煥光1</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>19611101</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>20081101</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3320032</t>
+  </si>
+  <si>
+    <t>埼玉県</t>
+  </si>
+  <si>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>ghg@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20210122</t>
+  </si>
+  <si>
+    <t>20220424</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>E00006</t>
+  </si>
+  <si>
+    <t>E00007</t>
+  </si>
+  <si>
+    <t>p00001</t>
+  </si>
+  <si>
+    <t>k00002</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	①「社員」項目のプルーダウンに社員IDのリストが表示される。参照　テストデータ_社員リスト　シート。
+	②空の社員リストが表示。
+	③新規ボタンが表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>契約情報リストの表示</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>チェック結果が画面に表示される。リストのデータが更新可能。
+参照：リスト行ごと更新画面のデータはデータベースの社員のデータ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>選択された社員の契約情報リストが画面に表示。
+参照：　テストデータ_契約情報リスト</t>
+    <rPh sb="34" eb="38">
+      <t>ケイヤクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>契約情報リスト画面にて
+①「社員」項目に、任意選択する。　参照　”テストデータ_社員リスト”　シート
+②「検索」ボタンをクリック</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヤクジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>結合テスト項目</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>E00002</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>E00003</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>郭  煥光2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>郭  煥光3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>No1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>No1,No.4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>対象テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>companyID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>payOff</t>
+  </si>
+  <si>
+    <t>lowerTime</t>
+  </si>
+  <si>
+    <t>lowerPrice</t>
+  </si>
+  <si>
+    <t>upperTime</t>
+  </si>
+  <si>
+    <t>upperPrice</t>
+  </si>
+  <si>
+    <t>contractBeginDate</t>
+  </si>
+  <si>
+    <t>contractEndDate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>postNeed</t>
+  </si>
+  <si>
+    <t>timeReportPath</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>CT00000001</t>
+  </si>
+  <si>
+    <t>倉庫案件</t>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>D:/tmp/work</t>
+  </si>
+  <si>
+    <t>NSW専用</t>
+  </si>
+  <si>
+    <t>20210314</t>
+  </si>
+  <si>
+    <t>CT00000002</t>
+  </si>
+  <si>
+    <t>RPA案件</t>
+  </si>
+  <si>
+    <t>C00002</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>社内1</t>
+  </si>
+  <si>
+    <t>20210310</t>
+  </si>
+  <si>
+    <t>CT00000003</t>
+  </si>
+  <si>
+    <t>SalseForce案件</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>CT00000004</t>
+  </si>
+  <si>
+    <t>開発支援</t>
+  </si>
+  <si>
+    <t>C00003</t>
+  </si>
+  <si>
+    <t>20210215</t>
+  </si>
+  <si>
+    <t>CT00000005</t>
+  </si>
+  <si>
+    <t>SBT案件</t>
+  </si>
+  <si>
+    <t>C00004</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>CT00000006</t>
+  </si>
+  <si>
+    <t>CT00000007</t>
+  </si>
+  <si>
+    <t>CT00000008</t>
+  </si>
+  <si>
+    <t>CT00000009</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20220203</t>
+  </si>
+  <si>
+    <t>CT000010</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>20170302</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20220513</t>
+  </si>
+  <si>
+    <t>No4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>会社</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>C002</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>全エラーメッセージチェック</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>既存契約情報の更新</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>新規追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>存在していない契約情報の新規追加</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>画面変更、</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>画面に入力した値がDBに更新されること。
+参照　テストデータ_更新</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>更新後の値</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
     <t>①”契約名称を入力してください。”というメッセージが表示。
 ②”単価を入力してください。”というメッセージが表示。
 ③”単価に数値のみを入力してください。”というメッセージが表示。
@@ -1013,26 +1684,14 @@
 ⑫”支払サイトを入力してください。”というメッセージが表示。
 ⑬”支払サイトに数値のみを入力してください。”というメッセージが表示。
 ⑭”タイムレポートパスを入力してください。”というメッセージが表示。</t>
-  </si>
-  <si>
-    <t>操作によってそれぞれのエラーメッセージが表示される。</t>
-  </si>
-  <si>
-    <t>①初期表示（契約リスト情報画面）</t>
-  </si>
-  <si>
-    <t>②検索ボタンを押したときの契約情報リスト画面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-①更新画面の左側にある登録ボタンクリック。
-②新規画面の左側にある登録ボタンクリック。</t>
-  </si>
-  <si>
-    <t>③更新画面表示</t>
-  </si>
-  <si>
-    <t>④新規画面表示</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>単独なエラーメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>タンドク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
@@ -1040,28 +1699,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1073,7 +1732,8 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1084,43 +1744,47 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1148,12 +1812,73 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="22"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,6 +1894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,14 +2073,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1507,9 +2241,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,9 +2333,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{7BFA7919-FAF9-4A8B-8FBD-E4DF656B0DDD}"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
@@ -2213,12 +2978,12 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.77734375" style="27"/>
-    <col min="22" max="22" width="5.77734375" style="28"/>
-    <col min="23" max="23" width="5.77734375" style="27"/>
-    <col min="24" max="16384" width="5.77734375" style="28"/>
+    <col min="1" max="21" width="5.75" style="27"/>
+    <col min="22" max="22" width="5.75" style="28"/>
+    <col min="23" max="23" width="5.75" style="27"/>
+    <col min="24" max="16384" width="5.75" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="25" customFormat="1">
@@ -2459,23 +3224,23 @@
       <c r="W14" s="33"/>
       <c r="X14" s="42"/>
     </row>
-    <row r="15" spans="1:24" s="26" customFormat="1" ht="23.4" customHeight="1">
+    <row r="15" spans="1:24" s="26" customFormat="1" ht="23.45" customHeight="1">
       <c r="A15" s="34"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
@@ -2528,20 +3293,20 @@
     <row r="18" spans="1:24" s="26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="34"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
@@ -2552,20 +3317,20 @@
     <row r="19" spans="1:24" s="26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="34"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="74"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
@@ -2575,18 +3340,18 @@
     </row>
     <row r="20" spans="1:24" s="26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="34"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="77"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76"/>
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
@@ -2609,24 +3374,24 @@
       <c r="W21" s="33"/>
       <c r="X21" s="42"/>
     </row>
-    <row r="22" spans="1:24" s="26" customFormat="1" ht="13.2">
+    <row r="22" spans="1:24" s="26" customFormat="1" ht="13.5">
       <c r="A22" s="34"/>
       <c r="B22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="70"/>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
@@ -2637,20 +3402,20 @@
     <row r="23" spans="1:24" s="26" customFormat="1">
       <c r="A23" s="34"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="80"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
@@ -2661,18 +3426,18 @@
     <row r="24" spans="1:24" s="26" customFormat="1">
       <c r="A24" s="34"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="83"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
@@ -2700,7 +3465,7 @@
       <c r="W25" s="33"/>
       <c r="X25" s="42"/>
     </row>
-    <row r="26" spans="1:24" s="26" customFormat="1" ht="13.2">
+    <row r="26" spans="1:24" s="26" customFormat="1" ht="13.5">
       <c r="A26" s="34"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
@@ -3110,9 +3875,10 @@
     <mergeCell ref="G19:R20"/>
     <mergeCell ref="G23:R24"/>
   </mergeCells>
+  <phoneticPr fontId="19"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3125,13 +3891,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="63.88671875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="63.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="20" customWidth="1"/>
     <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -3251,27 +4017,28 @@
       <c r="E17" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="44.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="51.125" style="9" customWidth="1"/>
     <col min="6" max="6" width="35" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -3295,7 +4062,7 @@
       <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="54" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -3309,122 +4076,206 @@
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>27</v>
+      <c r="D3" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>88</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="72">
+    <row r="4" spans="1:9" ht="132" customHeight="1">
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="99.6" customHeight="1">
+    <row r="5" spans="1:9" ht="132" customHeight="1">
       <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="86.1" customHeight="1">
+    <row r="6" spans="1:9" ht="54">
       <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="C6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="17"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="86.1" customHeight="1">
-      <c r="B7" s="14">
-        <v>5</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>38</v>
+    <row r="7" spans="1:9" ht="27">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="17"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="409.2" customHeight="1">
-      <c r="B8" s="50">
-        <v>6</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>24</v>
+    <row r="8" spans="1:9">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>41</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="15"/>
       <c r="H8" s="17"/>
       <c r="I8" s="19"/>
     </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="99.6" customHeight="1">
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="86.1" customHeight="1">
+      <c r="B11" s="14">
+        <v>4</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="86.1" customHeight="1">
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="409.15" customHeight="1">
+      <c r="B13" s="50">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="93" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3433,22 +4284,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3462,8 +4313,8 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3530,22 +4381,22 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
@@ -3576,22 +4427,22 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="57"/>
+      <c r="A19" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="56"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
@@ -3602,15 +4453,15 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.8">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.5">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="2"/>
@@ -3618,179 +4469,1469 @@
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="31.05" customHeight="1">
+    <row r="24" spans="1:10" ht="31.15" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="58"/>
-      <c r="B25" s="62"/>
+    <row r="25" spans="1:10" ht="14.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="59"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="13.05" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="58"/>
-      <c r="B27" s="62"/>
+    <row r="27" spans="1:10" ht="14.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="60"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="59"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="58"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="61"/>
+    <row r="29" spans="1:10" ht="18.75">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="58"/>
-      <c r="B31" s="62"/>
+    <row r="31" spans="1:10" ht="14.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="59"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="58"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="58"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="58"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.05" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+    <row r="32" spans="1:10" ht="14.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.149999999999999" customHeight="1">
+      <c r="A35" s="57"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A36" s="57"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A37" s="57"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A38" s="57"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A40" s="57"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A41" s="57"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A43" s="57"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="58"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="58"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="58"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="A49" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D26B36F-3F22-49E5-BD70-A3ED2A8E1A0C}">
+  <dimension ref="A2:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="B2" s="85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="87" customFormat="1">
+      <c r="A4" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="87" customFormat="1">
+      <c r="A5" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="88"/>
+    </row>
+    <row r="6" spans="1:20" s="87" customFormat="1">
+      <c r="A6" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+    </row>
+    <row r="7" spans="1:20" s="87" customFormat="1">
+      <c r="A7" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+    </row>
+    <row r="8" spans="1:20" s="87" customFormat="1">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+    </row>
+    <row r="9" spans="1:20" s="87" customFormat="1">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+    </row>
+    <row r="10" spans="1:20" s="87" customFormat="1">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+    </row>
+    <row r="11" spans="1:20" s="87" customFormat="1">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+    </row>
+    <row r="12" spans="1:20" s="87" customFormat="1">
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+    </row>
+    <row r="13" spans="1:20" s="87" customFormat="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+    </row>
+    <row r="14" spans="1:20" s="87" customFormat="1">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+    </row>
+    <row r="15" spans="1:20" s="87" customFormat="1">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+    </row>
+    <row r="16" spans="1:20" s="87" customFormat="1">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+    </row>
+    <row r="17" spans="2:20" s="87" customFormat="1">
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+    </row>
+    <row r="18" spans="2:20" s="87" customFormat="1">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+    </row>
+    <row r="19" spans="2:20" s="87" customFormat="1">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+    </row>
+    <row r="20" spans="2:20" s="87" customFormat="1">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+    </row>
+    <row r="21" spans="2:20" s="87" customFormat="1">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+    </row>
+    <row r="22" spans="2:20" s="87" customFormat="1">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+    </row>
+    <row r="23" spans="2:20" s="87" customFormat="1">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557F1975-D014-4490-9B0C-5E2BF577CCB5}">
+  <dimension ref="A2:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="B2" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="87" customFormat="1">
+      <c r="A3" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="87" customFormat="1">
+      <c r="A4" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="90">
+        <v>660000</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="90">
+        <v>0</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="90">
+        <v>0</v>
+      </c>
+      <c r="L4" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="87" customFormat="1">
+      <c r="A5" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="90">
+        <v>650000</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="90">
+        <v>4643</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="90">
+        <v>3611</v>
+      </c>
+      <c r="L5" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="A6" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="90">
+        <v>720000</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="90">
+        <v>5143</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="90">
+        <v>3600</v>
+      </c>
+      <c r="L6" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B7" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="90">
+        <v>700000</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="90">
+        <v>0</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="90">
+        <v>0</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B8" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="90">
+        <v>650000</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="90">
+        <v>4333</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="90">
+        <v>3250</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T8" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B9" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="90">
+        <v>580000</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="90">
+        <v>3866</v>
+      </c>
+      <c r="J9" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="90">
+        <v>2900</v>
+      </c>
+      <c r="L9" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B10" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="90">
+        <v>580000</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="90">
+        <v>3866</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="90">
+        <v>2900</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B11" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="90">
+        <v>450000</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="90">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="90">
+        <v>2250</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T11" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B12" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="90">
+        <v>660000</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="90">
+        <v>4400</v>
+      </c>
+      <c r="J12" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="90">
+        <v>3300</v>
+      </c>
+      <c r="L12" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="T12" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="87" customFormat="1" hidden="1">
+      <c r="B13" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="90">
+        <v>12</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="90">
+        <v>12</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="90">
+        <v>12</v>
+      </c>
+      <c r="L13" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542AE971-0BB2-44C4-84DB-1529BD364C5E}">
+  <dimension ref="B3:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>